--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,19 +40,19 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
@@ -61,9 +61,6 @@
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -100,76 +100,73 @@
     <t>great</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -533,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,7 +541,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8055555555555556</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>24</v>
@@ -652,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8047945205479452</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +723,13 @@
         <v>26</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -802,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7631578947368421</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8511749347258486</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="L7">
-        <v>326</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>326</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.582010582010582</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5406976744186046</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="C9">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D9">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5254237288135594</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8098591549295775</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4901960784313725</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4832214765100671</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K12">
-        <v>0.7878787878787878</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,13 +1099,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1120,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,13 +1149,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1170,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7875</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1202,13 +1199,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2341269841269841</v>
+        <v>0.1823056300268097</v>
       </c>
       <c r="C15">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1220,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7674418604651163</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1244,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,13 +1249,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1635388739946381</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C16">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1270,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7578125</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1294,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1302,37 +1299,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01355713363460297</v>
+        <v>0.01741935483870968</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E17">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="F17">
-        <v>0.8200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>3056</v>
+        <v>3046</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1344,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1352,13 +1349,13 @@
         <v>39</v>
       </c>
       <c r="K18">
-        <v>0.746031746031746</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1370,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1378,13 +1375,13 @@
         <v>40</v>
       </c>
       <c r="K19">
-        <v>0.7358490566037735</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1404,13 +1401,13 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1422,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1430,13 +1427,13 @@
         <v>42</v>
       </c>
       <c r="K21">
-        <v>0.6558823529411765</v>
+        <v>0.675</v>
       </c>
       <c r="L21">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1448,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1456,13 +1453,13 @@
         <v>43</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1474,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1482,13 +1479,13 @@
         <v>44</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1500,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1508,13 +1505,13 @@
         <v>45</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1526,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1534,13 +1531,13 @@
         <v>46</v>
       </c>
       <c r="K25">
-        <v>0.602510460251046</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L25">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M25">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1552,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1560,13 +1557,13 @@
         <v>47</v>
       </c>
       <c r="K26">
-        <v>0.5957446808510638</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1578,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1586,13 +1583,13 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>0.5932203389830508</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L27">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1604,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1612,13 +1609,13 @@
         <v>49</v>
       </c>
       <c r="K28">
-        <v>0.5571428571428572</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1630,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1638,13 +1635,13 @@
         <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5393258426966292</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1656,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1664,13 +1661,13 @@
         <v>51</v>
       </c>
       <c r="K30">
-        <v>0.3972602739726027</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1682,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1690,51 +1687,25 @@
         <v>52</v>
       </c>
       <c r="K31">
-        <v>0.358974358974359</v>
+        <v>0.01319509896324222</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32">
-        <v>0.008482563619227144</v>
-      </c>
-      <c r="L32">
-        <v>27</v>
-      </c>
-      <c r="M32">
-        <v>45</v>
-      </c>
-      <c r="N32">
-        <v>0.6</v>
-      </c>
-      <c r="O32">
-        <v>0.4</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>3156</v>
+        <v>3141</v>
       </c>
     </row>
   </sheetData>
